--- a/Data/Sounders Health Assessment Angles and Scores.xlsx
+++ b/Data/Sounders Health Assessment Angles and Scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/kat43_miami_edu/Documents/Adult!/School/USC/Methods Paper/R code/health_assessment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_BE216D5804AE653A0B1584DD1D5AF4C95F60B674" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A94CD2-1BF5-4A8F-8F2F-02E3AACAC1EE}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_BE216D5804AE653A0B1584DD1D5AF4C95F60B674" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BC1BDB-6E21-4D82-A4B9-E84F1947A884}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17324,7 +17324,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>22</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>1.8859999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>22</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>22</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>2.863</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>22</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>2.714</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>22</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>2.669</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>22</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>22</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>22</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>3.3340000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>22</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>22</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>22</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>22</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>22</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>2.7210000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>22</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>22</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>2.2090000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>22</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>2.9220000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>22</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>22</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>2.399</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>22</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>22</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>22</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>22</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>22</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>4.399</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>22</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>2.5339999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>22</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>22</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>22</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>22</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>2.6360000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>22</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>22</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>2.274</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>22</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>22</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>22</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>22</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>1.9359999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>22</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>1.722</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>22</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>1.893</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>22</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>22</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>22</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>2.173</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>22</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>22</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>22</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>22</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>22</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1.2010000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>22</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>22</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>22</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>22</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>22</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>3.0659999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>22</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>2.6960000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>22</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>22</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>22</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>22</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>2.8260000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>22</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>22</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>3.1230000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>22</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>22</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>1.651</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>22</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>22</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>4.077</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>22</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>22</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>22</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>2.2389999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>22</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>3.121</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>22</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>3.2290000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>22</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>4.3929999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>22</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>2.2789999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>22</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>2.173</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>22</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>22</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>22</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>1.601</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>22</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>2.9510000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>22</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>22</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>3.8580000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>22</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>22</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>22</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>22</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>22</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>22</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>1.9570000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>22</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>22</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>22</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>3.028</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>22</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>2.7280000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>22</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>22</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>4.8849999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>22</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>22</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>1.429</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>22</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>22</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>22</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>22</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2.8959999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>22</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>1.6870000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>22</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>22</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>22</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>22</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>2.121</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>22</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>1.9490000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>22</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>22</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>2.593</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>22</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>22</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>1.847</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>22</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>22</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>22</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>22</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>2.7850000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>22</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>22</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>22</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>2.415</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>22</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>2.238</v>
       </c>
     </row>
-    <row r="193" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>22</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>22</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>22</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>22</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>22</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>22</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>22</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>-0.54700000000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>22</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>22</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="202" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>22</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>22</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>22</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>-1.2729999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>44</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>2.6840000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>44</v>
       </c>
@@ -21785,7 +21785,7 @@
       <c r="CQ206" s="4"/>
       <c r="CR206" s="4"/>
     </row>
-    <row r="207" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>44</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:96" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>44</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>44</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>44</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>44</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>44</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>44</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1.931</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>44</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>44</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>2.5449999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>44</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>3.9670000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>44</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>44</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>44</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>1.4910000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>44</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>44</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>1.9450000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>44</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>1.4550000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>44</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>44</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>44</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>44</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>2.343</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>44</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>2.0379999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>44</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>1.8180000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>44</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>44</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>44</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>44</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>44</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>49</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>3.859</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>49</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>3.911</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>49</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>49</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>2.7949999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>49</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>2.899</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>49</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>5.2569999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>49</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>4.6580000000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>49</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>3.9369999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>49</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>49</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>49</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>49</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>4.3140000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>49</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>49</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>3.1269999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>49</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>2.613</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>49</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>3.0179999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>49</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>49</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>3.0390000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>49</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>4.3680000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>49</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>2.8540000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>49</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>2.1549999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>49</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>3.0409999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>49</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>4.9180000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>49</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>49</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>49</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>6.891</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>49</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>49</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>49</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>3.4260000000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>49</v>
       </c>
@@ -23920,7 +23920,7 @@
         <v>1.956</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>49</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>2.5470000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>49</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>2.8849999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>49</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>49</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>49</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>49</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>49</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>3.2360000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>49</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>3.004</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>49</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>2.2320000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>49</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>49</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>49</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>49</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>1.954</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>49</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>49</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>2.161</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>49</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>49</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>5.7969999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>49</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>3.0129999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>49</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>7.6769999999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>49</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>49</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>49</v>
       </c>
@@ -24690,7 +24690,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>49</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>4.2290000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>49</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>49</v>
       </c>
@@ -24795,7 +24795,7 @@
         <v>4.6609999999999996</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>49</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>49</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>2.3860000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>49</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>8.7390000000000008</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>49</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>49</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>49</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>49</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>49</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>49</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>3.3410000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>49</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>49</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>49</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>3.4670000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>49</v>
       </c>
@@ -25250,7 +25250,7 @@
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>49</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>4.2380000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>49</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>5.4560000000000004</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>49</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>49</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>49</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>4.1429999999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>49</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>5.4039999999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>49</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>4.0890000000000004</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>49</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>3.6110000000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>49</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>49</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>3.621</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>49</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>2.698</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>49</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>49</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1.7030000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>49</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>3.7349999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>49</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>2.2160000000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>49</v>
       </c>
@@ -25810,7 +25810,7 @@
         <v>2.5270000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>49</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>49</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>3.161</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>49</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>2.6179999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>49</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>49</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>4.6050000000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>49</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>3.0609999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>53</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>53</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>2.395</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>53</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>2.0470000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>53</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>1.5880000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>53</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>3.0779999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>53</v>
       </c>
@@ -26230,7 +26230,7 @@
         <v>2.2010000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>53</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>53</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>53</v>
       </c>
@@ -26335,7 +26335,7 @@
         <v>2.605</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>53</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>53</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>53</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>3.4729999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>53</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>53</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>1.4530000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>53</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>3.4889999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>53</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>4.4340000000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>53</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>5.4710000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>53</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>2.5110000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>53</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>3.1640000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>53</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>2.7850000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>53</v>
       </c>
@@ -26755,7 +26755,7 @@
         <v>1.8049999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>53</v>
       </c>
@@ -26790,7 +26790,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>53</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>53</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>1.4690000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>53</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>53</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>1.423</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>53</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>53</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>53</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>1.1990000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>53</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>2.698</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>53</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>53</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>3.4889999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>53</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>3.8660000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>53</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>3.6349999999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>53</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>3.4969999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>53</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>53</v>
       </c>
@@ -27315,7 +27315,7 @@
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>53</v>
       </c>
@@ -27350,7 +27350,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>53</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>2.1869999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>53</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>53</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>3.8860000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>53</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>53</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>53</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>53</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>53</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>53</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>3.3929999999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>53</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>53</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>53</v>
       </c>
@@ -27770,7 +27770,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>53</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>4.0179999999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>53</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>53</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>53</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>53</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>53</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>1.5620000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>53</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>53</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>2.2330000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>53</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>53</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>1.3759999999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>53</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>2.0779999999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>53</v>
       </c>
@@ -28190,7 +28190,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>53</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>53</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>53</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>53</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>3.4319999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>53</v>
       </c>
@@ -28365,7 +28365,7 @@
         <v>2.6629999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>53</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>53</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>1.899</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>53</v>
       </c>
@@ -28470,7 +28470,7 @@
         <v>2.0640000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>53</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>3.1509999999999998</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>53</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>2.5339999999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>53</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>53</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>53</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>53</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>53</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>53</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>2.0089999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>53</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>2.3839999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>53</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>53</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>1.804</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>53</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>3.1970000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>53</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>3.0379999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>53</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>56</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>56</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>2.9489999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>56</v>
       </c>
@@ -29065,7 +29065,7 @@
         <v>1.899</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>56</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>2.2280000000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>56</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>56</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>56</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>56</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>56</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>3.0880000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>56</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>56</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>56</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>56</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>56</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>56</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>3.3660000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>56</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>3.2650000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>56</v>
       </c>
@@ -29555,7 +29555,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>56</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>56</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>3.149</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>56</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>2.238</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>56</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>56</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>56</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>56</v>
       </c>
@@ -29800,7 +29800,7 @@
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>56</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>56</v>
       </c>
@@ -29870,7 +29870,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>56</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>2.573</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>56</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>1.6619999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>56</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>1.931</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>56</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>56</v>
       </c>
@@ -30045,7 +30045,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>56</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>56</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>56</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>3.2410000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>56</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>56</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>2.5950000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>56</v>
       </c>
@@ -30255,7 +30255,7 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>56</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>185</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>3.3039999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>185</v>
       </c>
@@ -30570,7 +30570,7 @@
         <v>3.056</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>185</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>1.635</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>185</v>
       </c>
@@ -30640,7 +30640,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>185</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>185</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>356</v>
       </c>
@@ -30850,7 +30850,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>356</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>356</v>
       </c>
@@ -30920,7 +30920,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>356</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>1.262</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>356</v>
       </c>
@@ -30990,7 +30990,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>356</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>356</v>
       </c>
@@ -31060,7 +31060,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>356</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>356</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>356</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>4.577</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>383</v>
       </c>
@@ -31305,7 +31305,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>383</v>
       </c>
@@ -31340,7 +31340,7 @@
         <v>2.6949999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>383</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>2.3769999999999998</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>383</v>
       </c>
@@ -31410,7 +31410,7 @@
         <v>2.399</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>383</v>
       </c>
@@ -31445,7 +31445,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>383</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>3.7010000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>383</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>1.829</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>383</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>3.4980000000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>383</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>383</v>
       </c>
@@ -31620,7 +31620,7 @@
         <v>2.3140000000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>383</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>2.4790000000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>383</v>
       </c>
@@ -31690,7 +31690,7 @@
         <v>1.637</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>383</v>
       </c>
@@ -31725,7 +31725,7 @@
         <v>1.909</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>383</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>383</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>383</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>383</v>
       </c>
@@ -31865,7 +31865,7 @@
         <v>2.7749999999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>383</v>
       </c>
@@ -31900,7 +31900,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>383</v>
       </c>
@@ -31935,7 +31935,7 @@
         <v>2.4870000000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>383</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>383</v>
       </c>
@@ -32005,7 +32005,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>383</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>383</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>383</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3">
         <v>383</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>383</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3">
         <v>383</v>
       </c>
@@ -32215,7 +32215,7 @@
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>383</v>
       </c>
@@ -32250,7 +32250,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3">
         <v>383</v>
       </c>
@@ -32285,7 +32285,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>383</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>383</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
         <v>383</v>
       </c>
@@ -32390,7 +32390,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3">
         <v>383</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>3.0369999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
         <v>383</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3">
         <v>383</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3">
         <v>383</v>
       </c>
@@ -32530,7 +32530,7 @@
         <v>1.661</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3">
         <v>383</v>
       </c>
@@ -32565,7 +32565,7 @@
         <v>1.1990000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3">
         <v>383</v>
       </c>
@@ -32600,7 +32600,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3">
         <v>383</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3">
         <v>383</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>2.4289999999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3">
         <v>383</v>
       </c>
@@ -32705,7 +32705,7 @@
         <v>1.913</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3">
         <v>383</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>2.573</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3">
         <v>383</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3">
         <v>383</v>
       </c>
@@ -32810,7 +32810,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3">
         <v>383</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3">
         <v>383</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3">
         <v>383</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>1.528</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3">
         <v>383</v>
       </c>
@@ -32950,7 +32950,7 @@
         <v>8.0340000000000007</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
         <v>383</v>
       </c>
@@ -32985,7 +32985,7 @@
         <v>4.4130000000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3">
         <v>383</v>
       </c>
@@ -33020,7 +33020,7 @@
         <v>3.3580000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3">
         <v>383</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>4.5330000000000004</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3">
         <v>383</v>
       </c>
@@ -33090,7 +33090,7 @@
         <v>2.7650000000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3">
         <v>383</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>3.0339999999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3">
         <v>383</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>5.1289999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3">
         <v>383</v>
       </c>
@@ -33195,7 +33195,7 @@
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3">
         <v>383</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>2.645</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3">
         <v>383</v>
       </c>
@@ -33265,7 +33265,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>383</v>
       </c>
@@ -33300,7 +33300,7 @@
         <v>2.286</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3">
         <v>383</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>2.419</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3">
         <v>383</v>
       </c>
@@ -33370,7 +33370,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3">
         <v>383</v>
       </c>
@@ -33405,7 +33405,7 @@
         <v>2.3210000000000002</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3">
         <v>383</v>
       </c>
@@ -33440,7 +33440,7 @@
         <v>4.1920000000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3">
         <v>383</v>
       </c>
@@ -33475,7 +33475,7 @@
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3">
         <v>383</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3">
         <v>383</v>
       </c>
@@ -33545,7 +33545,7 @@
         <v>2.766</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3">
         <v>383</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>4.8929999999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3">
         <v>383</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>2.4260000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3">
         <v>383</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3">
         <v>383</v>
       </c>
@@ -33685,7 +33685,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>383</v>
       </c>
@@ -33720,7 +33720,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3">
         <v>383</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>1.5620000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>383</v>
       </c>
@@ -33790,7 +33790,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3">
         <v>383</v>
       </c>
@@ -33825,7 +33825,7 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3">
         <v>383</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3">
         <v>383</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
         <v>383</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3">
         <v>383</v>
       </c>
@@ -33965,7 +33965,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3">
         <v>383</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3">
         <v>383</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3">
         <v>383</v>
       </c>
@@ -34070,7 +34070,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3">
         <v>383</v>
       </c>
@@ -34105,7 +34105,7 @@
         <v>1.4930000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3">
         <v>383</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>2.343</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3">
         <v>383</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3">
         <v>383</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3">
         <v>383</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="3">
         <v>383</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3">
         <v>383</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>1.4059999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="3">
         <v>383</v>
       </c>
@@ -34350,7 +34350,7 @@
         <v>2.5219999999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="3">
         <v>383</v>
       </c>
@@ -34385,7 +34385,7 @@
         <v>3.984</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="3">
         <v>383</v>
       </c>
@@ -34420,7 +34420,7 @@
         <v>2.1339999999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="3">
         <v>383</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>2.8839999999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="3">
         <v>383</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>2.9630000000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="3">
         <v>383</v>
       </c>
@@ -34525,7 +34525,7 @@
         <v>2.1070000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3">
         <v>383</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="3">
         <v>383</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="3">
         <v>383</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="3">
         <v>383</v>
       </c>
@@ -34665,7 +34665,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3">
         <v>383</v>
       </c>
@@ -34700,7 +34700,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3">
         <v>383</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>1.613</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3">
         <v>383</v>
       </c>
@@ -34770,7 +34770,7 @@
         <v>3.1160000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3">
         <v>383</v>
       </c>
@@ -34805,7 +34805,7 @@
         <v>2.964</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
         <v>383</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="3">
         <v>383</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3">
         <v>383</v>
       </c>
@@ -34910,7 +34910,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3">
         <v>383</v>
       </c>
@@ -34980,7 +34980,7 @@
         <v>6.952</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3">
         <v>531</v>
       </c>
@@ -35015,7 +35015,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
         <v>531</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3">
         <v>531</v>
       </c>
@@ -35085,7 +35085,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
         <v>531</v>
       </c>
@@ -35120,7 +35120,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
         <v>531</v>
       </c>
@@ -35155,7 +35155,7 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
         <v>531</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3">
         <v>531</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
         <v>531</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3">
         <v>531</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>2.7549999999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3">
         <v>531</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3">
         <v>531</v>
       </c>
@@ -35365,7 +35365,7 @@
         <v>-1.462</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3">
         <v>531</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3">
         <v>531</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>2.742</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3">
         <v>531</v>
       </c>
@@ -35470,7 +35470,7 @@
         <v>2.1680000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3">
         <v>531</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>2.0449999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3">
         <v>531</v>
       </c>
@@ -35540,7 +35540,7 @@
         <v>1.9530000000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3">
         <v>531</v>
       </c>
@@ -35575,7 +35575,7 @@
         <v>-0.42099999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3">
         <v>531</v>
       </c>
@@ -35610,7 +35610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3">
         <v>531</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>-0.52300000000000002</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3">
         <v>531</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3">
         <v>531</v>
       </c>
@@ -35715,7 +35715,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3">
         <v>531</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3">
         <v>531</v>
       </c>
@@ -35785,7 +35785,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3">
         <v>531</v>
       </c>
@@ -35820,7 +35820,7 @@
         <v>4.556</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3">
         <v>531</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3">
         <v>531</v>
       </c>
@@ -35890,7 +35890,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3">
         <v>531</v>
       </c>
@@ -35925,7 +35925,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3">
         <v>531</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3">
         <v>531</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3">
         <v>531</v>
       </c>
@@ -36030,7 +36030,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3">
         <v>531</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>4.6369999999999996</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="3">
         <v>531</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="3">
         <v>531</v>
       </c>
@@ -36135,7 +36135,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3">
         <v>531</v>
       </c>
@@ -36170,7 +36170,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="3">
         <v>531</v>
       </c>
@@ -36205,7 +36205,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="3">
         <v>531</v>
       </c>
@@ -36240,7 +36240,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="3">
         <v>531</v>
       </c>
@@ -36275,7 +36275,7 @@
         <v>1.7889999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="3">
         <v>531</v>
       </c>
@@ -36310,7 +36310,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="3">
         <v>531</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
         <v>531</v>
       </c>
@@ -36380,7 +36380,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="3">
         <v>531</v>
       </c>
@@ -36485,7 +36485,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="3">
         <v>723</v>
       </c>
@@ -36520,7 +36520,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="3">
         <v>723</v>
       </c>
@@ -36555,7 +36555,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3">
         <v>723</v>
       </c>
@@ -36590,7 +36590,7 @@
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3">
         <v>723</v>
       </c>
@@ -36625,7 +36625,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3">
         <v>723</v>
       </c>
@@ -36660,7 +36660,7 @@
         <v>2.1850000000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3">
         <v>723</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="3">
         <v>723</v>
       </c>
@@ -36730,7 +36730,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="3">
         <v>723</v>
       </c>
@@ -36765,7 +36765,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="3">
         <v>723</v>
       </c>
@@ -36800,7 +36800,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="3">
         <v>723</v>
       </c>
@@ -36835,7 +36835,7 @@
         <v>1.657</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="3">
         <v>723</v>
       </c>
@@ -36870,7 +36870,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="3">
         <v>723</v>
       </c>
@@ -36905,7 +36905,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="3">
         <v>723</v>
       </c>
@@ -36940,7 +36940,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="3">
         <v>723</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="3">
         <v>723</v>
       </c>
@@ -37010,7 +37010,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3">
         <v>723</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>2.7280000000000002</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="3">
         <v>723</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="3">
         <v>723</v>
       </c>
@@ -37115,7 +37115,7 @@
         <v>1.486</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="3">
         <v>723</v>
       </c>
@@ -37150,7 +37150,7 @@
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="3">
         <v>723</v>
       </c>
@@ -37185,7 +37185,7 @@
         <v>2.2810000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="3">
         <v>723</v>
       </c>
@@ -37220,7 +37220,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="3">
         <v>723</v>
       </c>
@@ -37255,7 +37255,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="3">
         <v>723</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>2.141</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="3">
         <v>723</v>
       </c>
@@ -37325,7 +37325,7 @@
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3">
         <v>723</v>
       </c>
@@ -37360,7 +37360,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3">
         <v>723</v>
       </c>
@@ -37395,7 +37395,7 @@
         <v>1.4570000000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3">
         <v>723</v>
       </c>
@@ -37430,7 +37430,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3">
         <v>723</v>
       </c>
@@ -37465,7 +37465,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3">
         <v>723</v>
       </c>
@@ -37500,7 +37500,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
         <v>723</v>
       </c>
@@ -37535,7 +37535,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3">
         <v>723</v>
       </c>
@@ -37570,7 +37570,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
         <v>723</v>
       </c>
@@ -37605,7 +37605,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3">
         <v>723</v>
       </c>
@@ -37640,7 +37640,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3">
         <v>723</v>
       </c>
@@ -37675,7 +37675,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3">
         <v>723</v>
       </c>
@@ -37710,7 +37710,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3">
         <v>723</v>
       </c>
@@ -37745,7 +37745,7 @@
         <v>2.2989999999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3">
         <v>723</v>
       </c>
@@ -37780,7 +37780,7 @@
         <v>2.0270000000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3">
         <v>723</v>
       </c>
@@ -37815,7 +37815,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3">
         <v>723</v>
       </c>
@@ -37850,7 +37850,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3">
         <v>723</v>
       </c>
@@ -37885,7 +37885,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
         <v>723</v>
       </c>
@@ -37920,7 +37920,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3">
         <v>723</v>
       </c>
@@ -37955,7 +37955,7 @@
         <v>3.4510000000000001</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3">
         <v>723</v>
       </c>
@@ -37990,7 +37990,7 @@
         <v>2.7250000000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3">
         <v>723</v>
       </c>
@@ -38025,7 +38025,7 @@
         <v>2.0179999999999998</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3">
         <v>723</v>
       </c>
@@ -38060,7 +38060,7 @@
         <v>1.659</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3">
         <v>723</v>
       </c>
@@ -38095,7 +38095,7 @@
         <v>3.0459999999999998</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3">
         <v>723</v>
       </c>
@@ -38130,7 +38130,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3">
         <v>723</v>
       </c>
@@ -38165,7 +38165,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3">
         <v>723</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
         <v>723</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>4.1479999999999997</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="3">
         <v>723</v>
       </c>
@@ -38270,7 +38270,7 @@
         <v>2.8820000000000001</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="3">
         <v>723</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="3">
         <v>723</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>2.7829999999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="3">
         <v>723</v>
       </c>
@@ -38375,7 +38375,7 @@
         <v>2.105</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="3">
         <v>723</v>
       </c>
@@ -38410,7 +38410,7 @@
         <v>2.056</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="3">
         <v>723</v>
       </c>
@@ -38445,7 +38445,7 @@
         <v>2.9449999999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="3">
         <v>723</v>
       </c>
@@ -38480,7 +38480,7 @@
         <v>2.6890000000000001</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="3">
         <v>723</v>
       </c>
@@ -38515,7 +38515,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="3">
         <v>723</v>
       </c>
@@ -38550,7 +38550,7 @@
         <v>1.7929999999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="3">
         <v>723</v>
       </c>
@@ -38585,7 +38585,7 @@
         <v>1.3879999999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="3">
         <v>723</v>
       </c>
@@ -38620,7 +38620,7 @@
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="3">
         <v>723</v>
       </c>
@@ -38655,7 +38655,7 @@
         <v>4.8780000000000001</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="3">
         <v>723</v>
       </c>
@@ -38690,7 +38690,7 @@
         <v>3.0670000000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="3">
         <v>723</v>
       </c>
@@ -38725,7 +38725,7 @@
         <v>3.2370000000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="3">
         <v>723</v>
       </c>
@@ -38760,7 +38760,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="3">
         <v>723</v>
       </c>
@@ -38795,7 +38795,7 @@
         <v>2.0550000000000002</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="3">
         <v>723</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>3.339</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="3">
         <v>723</v>
       </c>
@@ -38865,7 +38865,7 @@
         <v>3.0489999999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="3">
         <v>723</v>
       </c>
@@ -38900,7 +38900,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="3">
         <v>723</v>
       </c>
@@ -38935,7 +38935,7 @@
         <v>2.536</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="3">
         <v>723</v>
       </c>
@@ -38970,7 +38970,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="3">
         <v>723</v>
       </c>
@@ -39005,7 +39005,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="3">
         <v>723</v>
       </c>
@@ -39040,7 +39040,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="3">
         <v>723</v>
       </c>
@@ -39075,7 +39075,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="3">
         <v>723</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>3.3660000000000001</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="3">
         <v>723</v>
       </c>
@@ -39145,7 +39145,7 @@
         <v>1.786</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="3">
         <v>723</v>
       </c>
@@ -39180,7 +39180,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="3">
         <v>723</v>
       </c>
@@ -42017,6 +42017,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I784" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="21"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="S"/>
